--- a/AULA4.xlsx
+++ b/AULA4.xlsx
@@ -453,11 +453,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="197033784"/>
-        <c:axId val="196993136"/>
+        <c:axId val="197039552"/>
+        <c:axId val="197039936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197033784"/>
+        <c:axId val="197039552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +500,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196993136"/>
+        <c:crossAx val="197039936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -508,7 +508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196993136"/>
+        <c:axId val="197039936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +559,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197033784"/>
+        <c:crossAx val="197039552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2253,7 +2253,7 @@
   <dimension ref="B2:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AULA4.xlsx
+++ b/AULA4.xlsx
@@ -453,11 +453,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="197039552"/>
-        <c:axId val="197039936"/>
+        <c:axId val="197838152"/>
+        <c:axId val="197895272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197039552"/>
+        <c:axId val="197838152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +500,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197039936"/>
+        <c:crossAx val="197895272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -508,7 +508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197039936"/>
+        <c:axId val="197895272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +559,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197039552"/>
+        <c:crossAx val="197838152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2250,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,6 +2410,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AULA4.xlsx
+++ b/AULA4.xlsx
@@ -453,11 +453,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="197838152"/>
-        <c:axId val="197895272"/>
+        <c:axId val="195254336"/>
+        <c:axId val="195262912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197838152"/>
+        <c:axId val="195254336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -500,7 +500,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197895272"/>
+        <c:crossAx val="195262912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -508,7 +508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197895272"/>
+        <c:axId val="195262912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +559,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197838152"/>
+        <c:crossAx val="195254336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2250,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,6 +2415,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
